--- a/docs/examples/table_sheet_elements.xlsx
+++ b/docs/examples/table_sheet_elements.xlsx
@@ -57,17 +57,17 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="20"/>
-    </font>
+    <font/>
     <font>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
     </font>
     <font>
+      <sz val="20"/>
+    </font>
+    <font>
       <color rgb="FF777777"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -100,21 +100,21 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="Title" xfId="1"/>
+    <cellStyle hidden="0" name="Row" xfId="1"/>
     <cellStyle hidden="0" name="Header" xfId="2"/>
-    <cellStyle hidden="0" name="Description" xfId="3"/>
-    <cellStyle hidden="0" name="Row" xfId="4"/>
+    <cellStyle hidden="0" name="Title" xfId="3"/>
+    <cellStyle hidden="0" name="Description" xfId="4"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>

--- a/docs/examples/table_sheet_elements.xlsx
+++ b/docs/examples/table_sheet_elements.xlsx
@@ -63,10 +63,10 @@
       <color rgb="FFFFFFFF"/>
     </font>
     <font>
-      <sz val="20"/>
+      <color rgb="FF777777"/>
     </font>
     <font>
-      <color rgb="FF777777"/>
+      <sz val="20"/>
     </font>
   </fonts>
   <fills count="3">
@@ -100,8 +100,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
@@ -113,8 +113,8 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
     <cellStyle hidden="0" name="Row" xfId="1"/>
     <cellStyle hidden="0" name="Header" xfId="2"/>
-    <cellStyle hidden="0" name="Title" xfId="3"/>
-    <cellStyle hidden="0" name="Description" xfId="4"/>
+    <cellStyle hidden="0" name="Description" xfId="3"/>
+    <cellStyle hidden="0" name="Title" xfId="4"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>

--- a/docs/examples/table_sheet_elements.xlsx
+++ b/docs/examples/table_sheet_elements.xlsx
@@ -57,14 +57,14 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="20"/>
+    </font>
     <font>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
     </font>
-    <font>
-      <sz val="20"/>
-    </font>
+    <font/>
     <font>
       <color rgb="FF777777"/>
     </font>
@@ -100,20 +100,20 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="Row" xfId="1"/>
+    <cellStyle hidden="0" name="Title" xfId="1"/>
     <cellStyle hidden="0" name="Header" xfId="2"/>
-    <cellStyle hidden="0" name="Title" xfId="3"/>
+    <cellStyle hidden="0" name="Row" xfId="3"/>
     <cellStyle hidden="0" name="Description" xfId="4"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>

--- a/docs/examples/table_sheet_elements.xlsx
+++ b/docs/examples/table_sheet_elements.xlsx
@@ -58,10 +58,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <color rgb="FF777777"/>
     </font>
     <font>
-      <color rgb="FF777777"/>
+      <sz val="20"/>
     </font>
     <font/>
     <font>
@@ -79,6 +79,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1a1f43"/>
+        <bgColor rgb="FF1a1f43"/>
       </patternFill>
     </fill>
   </fills>
@@ -100,19 +101,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
-      <protection hidden="0" locked="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="Title" xfId="1"/>
-    <cellStyle hidden="0" name="Description" xfId="2"/>
+    <cellStyle hidden="0" name="Description" xfId="1"/>
+    <cellStyle hidden="0" name="Title" xfId="2"/>
     <cellStyle hidden="0" name="Row" xfId="3"/>
     <cellStyle hidden="0" name="Header" xfId="4"/>
   </cellStyles>
